--- a/data/trans_orig/P17D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17D-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6469</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2691</v>
+        <v>2748</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13958</v>
+        <v>15877</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01930456573569284</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008031528111102915</v>
+        <v>0.0082012697849144</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04165250168302588</v>
+        <v>0.04737748369696593</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>12281</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6335</v>
+        <v>6801</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20184</v>
+        <v>21327</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02325590606550871</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01199563287890887</v>
+        <v>0.01287920080007537</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03822266582229147</v>
+        <v>0.04038726328932946</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -786,19 +786,19 @@
         <v>18750</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10958</v>
+        <v>11248</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28382</v>
+        <v>27700</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02172189410774284</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01269461532794276</v>
+        <v>0.01303134712832151</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03288113286778407</v>
+        <v>0.03209075041946967</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>4721</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1758</v>
+        <v>1775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10574</v>
+        <v>10522</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01408720187904255</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005247478665705746</v>
+        <v>0.005298128290385646</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03155365852548404</v>
+        <v>0.03139841696543946</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5387</v>
+        <v>4568</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001698929006144777</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0102015852375191</v>
+        <v>0.00865040874827845</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -857,19 +857,19 @@
         <v>5618</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2636</v>
+        <v>2602</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11532</v>
+        <v>12459</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006508375203348761</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003054096187049674</v>
+        <v>0.003014128429066023</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01336046525734521</v>
+        <v>0.01443332530701481</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>122068</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>105039</v>
+        <v>106233</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>138955</v>
+        <v>138527</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3642637885070073</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3134479386380773</v>
+        <v>0.3170110256253481</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4146566331096533</v>
+        <v>0.4133799340602984</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>198</v>
@@ -907,19 +907,19 @@
         <v>200596</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>179712</v>
+        <v>179582</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>225129</v>
+        <v>223487</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3798666329719861</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3403176758338246</v>
+        <v>0.3400726833011744</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4263238862287847</v>
+        <v>0.42321434719237</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>326</v>
@@ -928,19 +928,19 @@
         <v>322664</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>297395</v>
+        <v>296314</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>351268</v>
+        <v>351469</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.373809207393169</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3445345670179412</v>
+        <v>0.3432831347126385</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4069470162014522</v>
+        <v>0.4071805485802404</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5684</v>
+        <v>4294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00283303436425626</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01696127562886789</v>
+        <v>0.01281500649742379</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7116</v>
+        <v>7047</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003836710391475811</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01347577803635077</v>
+        <v>0.01334438692857795</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -999,19 +999,19 @@
         <v>2975</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8028</v>
+        <v>8052</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003447057539794094</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001100322135246334</v>
+        <v>0.001097292539366905</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009300732288922415</v>
+        <v>0.009328302491237089</v>
       </c>
     </row>
     <row r="8">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4705</v>
+        <v>4699</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.001764490060502694</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.008909205036685826</v>
+        <v>0.008898483784877337</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4925</v>
+        <v>5595</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.001079469630410741</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.005705979240404805</v>
+        <v>0.00648215326996448</v>
       </c>
     </row>
     <row r="9">
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6318</v>
+        <v>6789</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003669259404003192</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01196362588527169</v>
+        <v>0.01285600124218793</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6861</v>
+        <v>5854</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002244758517705696</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007948742339563322</v>
+        <v>0.006781591083119749</v>
       </c>
     </row>
     <row r="10">
@@ -1201,19 +1201,19 @@
         <v>89172</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>73789</v>
+        <v>73365</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>107146</v>
+        <v>105565</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.266098220404984</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2201947335943306</v>
+        <v>0.2189291404694624</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.319736875406577</v>
+        <v>0.3150192148772871</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>106</v>
@@ -1222,19 +1222,19 @@
         <v>108009</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>88946</v>
+        <v>91063</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>126486</v>
+        <v>127434</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.204535439616005</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1684367029862932</v>
+        <v>0.1724441279425338</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2395256055874746</v>
+        <v>0.2413195192362399</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>195</v>
@@ -1243,19 +1243,19 @@
         <v>197181</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>173664</v>
+        <v>172628</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>221311</v>
+        <v>220035</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2284356947195722</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2011914244543425</v>
+        <v>0.1999911684804195</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2563910774486997</v>
+        <v>0.2549128622207127</v>
       </c>
     </row>
     <row r="12">
@@ -1272,19 +1272,19 @@
         <v>111729</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>96037</v>
+        <v>93740</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>130164</v>
+        <v>126657</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.333413189109017</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2865862565530478</v>
+        <v>0.2797298296970843</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3884234039739727</v>
+        <v>0.3779590948319887</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>197</v>
@@ -1293,19 +1293,19 @@
         <v>201391</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>180163</v>
+        <v>178484</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>223094</v>
+        <v>225723</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3813726324843737</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3411726364731061</v>
+        <v>0.3379939658618289</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4224696808835816</v>
+        <v>0.4274491705625182</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>313</v>
@@ -1314,19 +1314,19 @@
         <v>313121</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>285714</v>
+        <v>288327</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>341338</v>
+        <v>341559</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3627535428882567</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.331002709411243</v>
+        <v>0.3340299979773144</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3954437456724286</v>
+        <v>0.3956993481237496</v>
       </c>
     </row>
     <row r="13">
@@ -1418,19 +1418,19 @@
         <v>9416</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4337</v>
+        <v>4721</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17653</v>
+        <v>18384</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03770631366989101</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01736797123223296</v>
+        <v>0.01890324160265457</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0706904828052321</v>
+        <v>0.07361615594381854</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1439,19 +1439,19 @@
         <v>8972</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4077</v>
+        <v>3910</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15135</v>
+        <v>15913</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02220049070989958</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01008754094653464</v>
+        <v>0.009674365362458979</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03744759219056654</v>
+        <v>0.03937400875890709</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -1460,19 +1460,19 @@
         <v>18389</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10670</v>
+        <v>11468</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28193</v>
+        <v>28437</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.028122431660286</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01631868188913271</v>
+        <v>0.0175376636914906</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04311632152910539</v>
+        <v>0.04349029304723522</v>
       </c>
     </row>
     <row r="15">
@@ -1489,19 +1489,19 @@
         <v>10361</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5465</v>
+        <v>5049</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18758</v>
+        <v>18711</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04148897067338225</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02188239163846637</v>
+        <v>0.02021682289035161</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07511409532203217</v>
+        <v>0.0749242654516247</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>10</v>
@@ -1510,19 +1510,19 @@
         <v>9857</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4897</v>
+        <v>4682</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17157</v>
+        <v>16916</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02438985542889405</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01211647549100632</v>
+        <v>0.0115859741597295</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04245129223721929</v>
+        <v>0.04185541423807843</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>20</v>
@@ -1531,19 +1531,19 @@
         <v>20218</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>13146</v>
+        <v>12622</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>31457</v>
+        <v>31068</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03092030215481019</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02010413659528322</v>
+        <v>0.01930366850776738</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04810795416956355</v>
+        <v>0.04751389186258152</v>
       </c>
     </row>
     <row r="16">
@@ -1560,19 +1560,19 @@
         <v>39545</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28286</v>
+        <v>29651</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50688</v>
+        <v>51968</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1583505260841661</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1132655265876085</v>
+        <v>0.1187311968211992</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2029732718857066</v>
+        <v>0.208099296088106</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -1581,19 +1581,19 @@
         <v>52257</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39946</v>
+        <v>40213</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65857</v>
+        <v>64992</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1293011506375415</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0988393724908376</v>
+        <v>0.09949970728651984</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1629514402672312</v>
+        <v>0.1608111690206918</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>93</v>
@@ -1602,19 +1602,19 @@
         <v>91802</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76605</v>
+        <v>75067</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>109476</v>
+        <v>108853</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1403956076350442</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1171544833905267</v>
+        <v>0.1148028763567216</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1674248888944005</v>
+        <v>0.1664721836456004</v>
       </c>
     </row>
     <row r="17">
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4944</v>
+        <v>4227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.003975336670260532</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01979607133725202</v>
+        <v>0.01692839860239256</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1652,19 +1652,19 @@
         <v>3024</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9075</v>
+        <v>8153</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.007482100334182103</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002414168387194298</v>
+        <v>0.002410446793209635</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0224555434595575</v>
+        <v>0.02017264787161537</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1673,19 +1673,19 @@
         <v>4017</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1060</v>
+        <v>985</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11067</v>
+        <v>9891</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0061428068701533</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001620512651556879</v>
+        <v>0.00150669364077125</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01692483398092644</v>
+        <v>0.01512691215296392</v>
       </c>
     </row>
     <row r="18">
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6997</v>
+        <v>6716</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.004620607914916425</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01731328115687747</v>
+        <v>0.01661856843874554</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6177</v>
+        <v>5920</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002855918140137885</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.009446608471159423</v>
+        <v>0.009053240603322263</v>
       </c>
     </row>
     <row r="19">
@@ -1778,19 +1778,19 @@
         <v>7022</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14000</v>
+        <v>13982</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01737345499421296</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007373649397549926</v>
+        <v>0.007367337415020254</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03463933185107979</v>
+        <v>0.03459579445277539</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1799,19 +1799,19 @@
         <v>7022</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13648</v>
+        <v>14147</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01073823319106256</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004579335715360235</v>
+        <v>0.004573748767744326</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02087261993024823</v>
+        <v>0.02163558937260262</v>
       </c>
     </row>
     <row r="20">
@@ -1841,19 +1841,19 @@
         <v>2940</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8875</v>
+        <v>9820</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007275435431407714</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002304646028807548</v>
+        <v>0.002306679752730731</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02196044322361899</v>
+        <v>0.02429724628745309</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1862,19 +1862,19 @@
         <v>2940</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9133</v>
+        <v>7980</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004496821285978993</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001427153632809581</v>
+        <v>0.001422680365509094</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01396735935412481</v>
+        <v>0.01220480509086502</v>
       </c>
     </row>
     <row r="21">
@@ -1891,19 +1891,19 @@
         <v>65288</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>52675</v>
+        <v>51551</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>79498</v>
+        <v>80461</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2614384078130593</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2109295997611228</v>
+        <v>0.2064287115286338</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3183393417700213</v>
+        <v>0.322194335342301</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>82</v>
@@ -1912,19 +1912,19 @@
         <v>88980</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>71577</v>
+        <v>72530</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>105854</v>
+        <v>107625</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2201658257054917</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.177103039528882</v>
+        <v>0.1794614906912919</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2619156009525531</v>
+        <v>0.2662988629053921</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>150</v>
@@ -1933,19 +1933,19 @@
         <v>154269</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>131739</v>
+        <v>132001</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>176966</v>
+        <v>177367</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2359285359300076</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2014728232874244</v>
+        <v>0.2018734643898712</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2706391874640802</v>
+        <v>0.2712538074794837</v>
       </c>
     </row>
     <row r="22">
@@ -1962,19 +1962,19 @@
         <v>124125</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>107035</v>
+        <v>107942</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>138947</v>
+        <v>138395</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4970404450892408</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4286072350554697</v>
+        <v>0.4322365871515037</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5563953319725086</v>
+        <v>0.5541849337738632</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>223</v>
@@ -1983,19 +1983,19 @@
         <v>229231</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>209363</v>
+        <v>208798</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>249912</v>
+        <v>248371</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.567191078843454</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5180292689992605</v>
+        <v>0.5166325024833661</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6183615220285231</v>
+        <v>0.6145480588475457</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>343</v>
@@ -2004,19 +2004,19 @@
         <v>353356</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>326856</v>
+        <v>326890</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>379427</v>
+        <v>378514</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5403993431325192</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4998714938710034</v>
+        <v>0.4999232167837963</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5802694808143138</v>
+        <v>0.5788737641236983</v>
       </c>
     </row>
     <row r="23">
@@ -2108,19 +2108,19 @@
         <v>7152</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2816</v>
+        <v>3132</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14422</v>
+        <v>14380</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09965769781867419</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03924168232327791</v>
+        <v>0.04363705479433553</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2009464994158445</v>
+        <v>0.2003624780224217</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2129,19 +2129,19 @@
         <v>3174</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9287</v>
+        <v>8693</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02732922329888073</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008427087062576586</v>
+        <v>0.008422165930717606</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07995901765608</v>
+        <v>0.07484642255409249</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -2150,19 +2150,19 @@
         <v>10326</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5569</v>
+        <v>5235</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18371</v>
+        <v>19474</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05495274425289638</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02963793714118483</v>
+        <v>0.02785949275017504</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09776092282663069</v>
+        <v>0.1036302389172792</v>
       </c>
     </row>
     <row r="25">
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6744</v>
+        <v>7070</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02640215976236017</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0939673284669218</v>
+        <v>0.09851720661609355</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2200,19 +2200,19 @@
         <v>2973</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7993</v>
+        <v>9014</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02559537496697099</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008115633500253173</v>
+        <v>0.008166249636993918</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06881962756021374</v>
+        <v>0.07760871974110643</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2221,19 +2221,19 @@
         <v>4868</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1957</v>
+        <v>1899</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10945</v>
+        <v>10718</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02590350031938272</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01041683174619482</v>
+        <v>0.0101057341647731</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05824262138968987</v>
+        <v>0.05703536609501823</v>
       </c>
     </row>
     <row r="26">
@@ -2250,19 +2250,19 @@
         <v>7032</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3233</v>
+        <v>2944</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14288</v>
+        <v>14218</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09797660727794975</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04504716387100268</v>
+        <v>0.04102173864302083</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1990799176672431</v>
+        <v>0.1981111408948608</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -2271,19 +2271,19 @@
         <v>18018</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11069</v>
+        <v>11241</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27551</v>
+        <v>26697</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1551271414646741</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09530379287710651</v>
+        <v>0.0967782043241979</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2372078979919088</v>
+        <v>0.2298554456730139</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>25</v>
@@ -2292,19 +2292,19 @@
         <v>25049</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16593</v>
+        <v>16698</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>35100</v>
+        <v>35384</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1333003438013536</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0883020402867877</v>
+        <v>0.08885900057903666</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1867866277476011</v>
+        <v>0.1882954097749398</v>
       </c>
     </row>
     <row r="27">
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5437</v>
+        <v>4909</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.008400000544834429</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04681446517622245</v>
+        <v>0.04226379573929348</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4520</v>
+        <v>4937</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.005191892084030694</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02405402692771161</v>
+        <v>0.02627471799332628</v>
       </c>
     </row>
     <row r="28">
@@ -2397,19 +2397,19 @@
         <v>3113</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8207</v>
+        <v>8454</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02680579653466891</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008405831449141948</v>
+        <v>0.0083193016691827</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.070661954497197</v>
+        <v>0.0727844750467791</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -2418,19 +2418,19 @@
         <v>3113</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8270</v>
+        <v>9135</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0165681897389958</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005092759003116727</v>
+        <v>0.005125240905599807</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04401057366537038</v>
+        <v>0.04861272802203407</v>
       </c>
     </row>
     <row r="29">
@@ -2460,19 +2460,19 @@
         <v>4335</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1174</v>
+        <v>1136</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10018</v>
+        <v>9902</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03732367958756504</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01011072368366041</v>
+        <v>0.009783945928073943</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08624790301372698</v>
+        <v>0.08525170792839228</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2481,19 +2481,19 @@
         <v>4335</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1053</v>
+        <v>1182</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10500</v>
+        <v>9998</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0230691076224682</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005600969143145371</v>
+        <v>0.006289207876756298</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0558744399680822</v>
+        <v>0.05320339172579271</v>
       </c>
     </row>
     <row r="30">
@@ -2557,19 +2557,19 @@
         <v>22533</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>13857</v>
+        <v>14312</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>30791</v>
+        <v>31246</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3139707415351319</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1930810210264298</v>
+        <v>0.1994110892709326</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4290340321262605</v>
+        <v>0.4353710742782791</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>22</v>
@@ -2578,19 +2578,19 @@
         <v>22628</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>14455</v>
+        <v>15492</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31389</v>
+        <v>33183</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1948237573294682</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.124451104763845</v>
+        <v>0.1333812597769501</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2702498503424831</v>
+        <v>0.2856984623822378</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>42</v>
@@ -2599,19 +2599,19 @@
         <v>45161</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>34415</v>
+        <v>32058</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>58871</v>
+        <v>56881</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2403280934386479</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1831404797263491</v>
+        <v>0.1705950792642857</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3132842126262185</v>
+        <v>0.3026961690693061</v>
       </c>
     </row>
     <row r="32">
@@ -2628,19 +2628,19 @@
         <v>33157</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24317</v>
+        <v>24633</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>43349</v>
+        <v>42521</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.461992793605884</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3388250521693728</v>
+        <v>0.343222999672211</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6040123983847087</v>
+        <v>0.5924645547028585</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>57</v>
@@ -2649,19 +2649,19 @@
         <v>60931</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>49132</v>
+        <v>49918</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>72410</v>
+        <v>71514</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5245950262729376</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4230134715986241</v>
+        <v>0.4297815741036787</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6234276748461782</v>
+        <v>0.6157124214104694</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>88</v>
@@ -2670,19 +2670,19 @@
         <v>94087</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>79718</v>
+        <v>79071</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>107507</v>
+        <v>107976</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5006861287422247</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4242232114080092</v>
+        <v>0.4207797749184224</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5721001100808603</v>
+        <v>0.5745952751863953</v>
       </c>
     </row>
     <row r="33">
@@ -2774,19 +2774,19 @@
         <v>23038</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14452</v>
+        <v>14070</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>35683</v>
+        <v>35075</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03508614261271554</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02200982445320963</v>
+        <v>0.02142893522500083</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05434518133838825</v>
+        <v>0.05341809848796524</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>24</v>
@@ -2795,19 +2795,19 @@
         <v>24427</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>15804</v>
+        <v>15279</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>34894</v>
+        <v>35212</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02330031627680984</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01507515660394217</v>
+        <v>0.01457416568350696</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03328396206806737</v>
+        <v>0.03358779861028868</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>45</v>
@@ -2816,19 +2816,19 @@
         <v>47465</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>34611</v>
+        <v>34546</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>63812</v>
+        <v>63633</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0278391685985011</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02030023917602533</v>
+        <v>0.02026189004155</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03742689564541044</v>
+        <v>0.03732215186286033</v>
       </c>
     </row>
     <row r="35">
@@ -2845,19 +2845,19 @@
         <v>16977</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10191</v>
+        <v>10028</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>26532</v>
+        <v>27936</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02585503610925569</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01552097413143774</v>
+        <v>0.01527280355545374</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04040721131183764</v>
+        <v>0.04254602215313764</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>14</v>
@@ -2866,19 +2866,19 @@
         <v>13727</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>7665</v>
+        <v>7784</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>22623</v>
+        <v>21970</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01309385342954943</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007311733925090978</v>
+        <v>0.007424877114512063</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02157883747599042</v>
+        <v>0.02095668136867966</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>31</v>
@@ -2887,19 +2887,19 @@
         <v>30704</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>21271</v>
+        <v>20925</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>44884</v>
+        <v>42376</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01800832628724405</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01247590632215916</v>
+        <v>0.01227267271930759</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02632504803457697</v>
+        <v>0.02485419677986848</v>
       </c>
     </row>
     <row r="36">
@@ -2916,19 +2916,19 @@
         <v>168644</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>146758</v>
+        <v>145707</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>192580</v>
+        <v>192379</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2568424655912179</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2235106415833986</v>
+        <v>0.2219107241680425</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2932964774141542</v>
+        <v>0.2929914137604562</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>269</v>
@@ -2937,19 +2937,19 @@
         <v>270871</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>243075</v>
+        <v>241739</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>297791</v>
+        <v>301320</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2583737666986017</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2318596568749546</v>
+        <v>0.2305852330770528</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2840512104175177</v>
+        <v>0.2874177920380651</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>444</v>
@@ -2958,19 +2958,19 @@
         <v>439515</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>404766</v>
+        <v>402977</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>474576</v>
+        <v>477112</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2577840456736717</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2374027421106871</v>
+        <v>0.2363537844431534</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2783477956861704</v>
+        <v>0.279835334356323</v>
       </c>
     </row>
     <row r="37">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6794</v>
+        <v>7676</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.002957831168311584</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01034672566163451</v>
+        <v>0.01169083880505965</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>6</v>
@@ -3008,19 +3008,19 @@
         <v>6026</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2939</v>
+        <v>2031</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>12364</v>
+        <v>12089</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.005747587950125936</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.002802992965639643</v>
+        <v>0.001936948931218031</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01179351588237886</v>
+        <v>0.01153128614089556</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>8</v>
@@ -3029,19 +3029,19 @@
         <v>7968</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3920</v>
+        <v>3158</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>15161</v>
+        <v>14996</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.004673221699919437</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.002299306017075918</v>
+        <v>0.001852091236837959</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.008891963969760006</v>
+        <v>0.008795372188136271</v>
       </c>
     </row>
     <row r="38">
@@ -3071,19 +3071,19 @@
         <v>5913</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>11895</v>
+        <v>12011</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.005639834916455211</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.002010362613674369</v>
+        <v>0.002006577113952852</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01134603453687196</v>
+        <v>0.01145720759798669</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6</v>
@@ -3092,19 +3092,19 @@
         <v>5913</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2266</v>
+        <v>2259</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>12299</v>
+        <v>12461</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.003467871994642736</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.001329188388656494</v>
+        <v>0.001324690063542431</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.007213853722984994</v>
+        <v>0.007308391424981048</v>
       </c>
     </row>
     <row r="39">
@@ -3134,19 +3134,19 @@
         <v>13294</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>7233</v>
+        <v>7246</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>21726</v>
+        <v>22193</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01268082902019306</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.006899186856889838</v>
+        <v>0.006911930653505745</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02072371292493067</v>
+        <v>0.02116881780343316</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>13</v>
@@ -3155,19 +3155,19 @@
         <v>13294</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>7236</v>
+        <v>7222</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>22521</v>
+        <v>21621</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.007797301247182635</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.00424425400330368</v>
+        <v>0.004235869772944949</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01320894419050786</v>
+        <v>0.01268131043580834</v>
       </c>
     </row>
     <row r="40">
@@ -3200,16 +3200,16 @@
         <v>933</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8036</v>
+        <v>8223</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002804716536115894</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.000889612528748217</v>
+        <v>0.0008900139898260521</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.007665357426261746</v>
+        <v>0.007843902601394177</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -3218,19 +3218,19 @@
         <v>2940</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>8029</v>
+        <v>7867</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001724589118757575</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0005481724412192237</v>
+        <v>0.0005461659384784402</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.004708891538698272</v>
+        <v>0.004614043330759225</v>
       </c>
     </row>
     <row r="41">
@@ -3247,19 +3247,19 @@
         <v>176993</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>154857</v>
+        <v>153001</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>199985</v>
+        <v>198523</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2695585285812017</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2358451954640911</v>
+        <v>0.2330192906521462</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3045745683666473</v>
+        <v>0.302348236840348</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>210</v>
@@ -3268,19 +3268,19 @@
         <v>219618</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>194348</v>
+        <v>191266</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>248370</v>
+        <v>243616</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2094850851903098</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1853815741974406</v>
+        <v>0.1824410779194122</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2369107492887153</v>
+        <v>0.2323759949611517</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>387</v>
@@ -3289,19 +3289,19 @@
         <v>396611</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>365390</v>
+        <v>361536</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>432674</v>
+        <v>432368</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2326200339190266</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2143080788859245</v>
+        <v>0.2120479803703753</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2537718049009148</v>
+        <v>0.2535921843488246</v>
       </c>
     </row>
     <row r="42">
@@ -3318,19 +3318,19 @@
         <v>269011</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>244546</v>
+        <v>245656</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>295236</v>
+        <v>296592</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4096999959372976</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3724408416123854</v>
+        <v>0.3741313763512282</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4496415369081748</v>
+        <v>0.451705433616539</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>477</v>
@@ -3339,19 +3339,19 @@
         <v>491553</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>458382</v>
+        <v>459050</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>523402</v>
+        <v>527781</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4688740099818391</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4372333613858852</v>
+        <v>0.4378705850275932</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4992534121566266</v>
+        <v>0.5034297250870156</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>744</v>
@@ -3360,19 +3360,19 @@
         <v>760564</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>721273</v>
+        <v>718758</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>801280</v>
+        <v>801620</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4460854414610542</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4230404058453074</v>
+        <v>0.4215655038918991</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4699658177432278</v>
+        <v>0.4701653286063333</v>
       </c>
     </row>
     <row r="43">
@@ -3703,19 +3703,19 @@
         <v>10653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5404</v>
+        <v>5506</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19477</v>
+        <v>20311</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03093196362312268</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01569231129583457</v>
+        <v>0.01598648749760233</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05655409137300157</v>
+        <v>0.05897577386829606</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -3724,19 +3724,19 @@
         <v>8164</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3880</v>
+        <v>3874</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15781</v>
+        <v>15093</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01485830444109999</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007060752249196697</v>
+        <v>0.00705018760646341</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02872149965129761</v>
+        <v>0.02746869881893555</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -3745,19 +3745,19 @@
         <v>18817</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11531</v>
+        <v>11593</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30337</v>
+        <v>31045</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02105154987204845</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0129001913559652</v>
+        <v>0.01297015382138797</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03393924007159123</v>
+        <v>0.03473201944018756</v>
       </c>
     </row>
     <row r="5">
@@ -3787,19 +3787,19 @@
         <v>5369</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1182</v>
+        <v>2018</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11666</v>
+        <v>11772</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00977167263263479</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002151129974268171</v>
+        <v>0.00367320591611227</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02123153096671717</v>
+        <v>0.02142466734294779</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -3808,19 +3808,19 @@
         <v>5369</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2071</v>
+        <v>2119</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11927</v>
+        <v>11743</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006006607926492752</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002316685261503794</v>
+        <v>0.002370860973591999</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01334388717001918</v>
+        <v>0.01313735512341262</v>
       </c>
     </row>
     <row r="6">
@@ -3837,19 +3837,19 @@
         <v>63813</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49361</v>
+        <v>51161</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79302</v>
+        <v>80180</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1852853140417199</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.143323479427506</v>
+        <v>0.1485507833800017</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2302594006244299</v>
+        <v>0.2328068271099088</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>96</v>
@@ -3858,19 +3858,19 @@
         <v>102395</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>83665</v>
+        <v>83054</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>123009</v>
+        <v>121678</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1863593846931388</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1522706055599921</v>
+        <v>0.151158616133924</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2238769780956087</v>
+        <v>0.2214556562980932</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>157</v>
@@ -3879,19 +3879,19 @@
         <v>166208</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>144264</v>
+        <v>143343</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>190294</v>
+        <v>191944</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1859455409579266</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1613956763692875</v>
+        <v>0.160365280555077</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2128924105800843</v>
+        <v>0.2147384586496574</v>
       </c>
     </row>
     <row r="7">
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10836</v>
+        <v>10808</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005837282841397466</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03146288437650644</v>
+        <v>0.03138188925756734</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -3929,19 +3929,19 @@
         <v>2988</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8101</v>
+        <v>8904</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005438842947712305</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001743199105252284</v>
+        <v>0.001734908070349933</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01474318370558245</v>
+        <v>0.01620494886104801</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -3950,19 +3950,19 @@
         <v>4999</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1038</v>
+        <v>1951</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13001</v>
+        <v>13153</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00559236343879209</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001161490413970393</v>
+        <v>0.002183056013769057</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01454459534720611</v>
+        <v>0.01471474684857184</v>
       </c>
     </row>
     <row r="8">
@@ -4120,19 +4120,19 @@
         <v>114974</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>98187</v>
+        <v>97682</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>132603</v>
+        <v>135961</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.33383547030906</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2850912128279372</v>
+        <v>0.2836273823389529</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3850206180403675</v>
+        <v>0.3947712254917058</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -4141,19 +4141,19 @@
         <v>150920</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>127541</v>
+        <v>129921</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>170936</v>
+        <v>172792</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2746767095466117</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2321266340737324</v>
+        <v>0.236458609674401</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3111052879753884</v>
+        <v>0.314483112839905</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>245</v>
@@ -4162,19 +4162,19 @@
         <v>265895</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>240439</v>
+        <v>236959</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>296366</v>
+        <v>291779</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2974708176363479</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2689922461181164</v>
+        <v>0.2650989028110083</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3315606467834065</v>
+        <v>0.3264286013012275</v>
       </c>
     </row>
     <row r="12">
@@ -4191,19 +4191,19 @@
         <v>152953</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>134878</v>
+        <v>131824</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>170931</v>
+        <v>172197</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4441099691846999</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3916283744206025</v>
+        <v>0.3827592769795552</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4963097270571813</v>
+        <v>0.499984184593591</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>264</v>
@@ -4212,19 +4212,19 @@
         <v>279611</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>257096</v>
+        <v>257479</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>307170</v>
+        <v>305465</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5088950857388025</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4679180346794385</v>
+        <v>0.4686153551919757</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5590524397188916</v>
+        <v>0.5559507289353185</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>405</v>
@@ -4233,19 +4233,19 @@
         <v>432564</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>403199</v>
+        <v>402654</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>462633</v>
+        <v>463537</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4839331201683922</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4510806804815208</v>
+        <v>0.450471377915125</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5175723748103364</v>
+        <v>0.5185844850523624</v>
       </c>
     </row>
     <row r="13">
@@ -4337,19 +4337,19 @@
         <v>11029</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4990</v>
+        <v>5108</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20577</v>
+        <v>21399</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0308300945443139</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01394717667447014</v>
+        <v>0.0142772384656654</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05751667875906122</v>
+        <v>0.05981627494909082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -4358,19 +4358,19 @@
         <v>9020</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4081</v>
+        <v>3919</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17756</v>
+        <v>16613</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01824292084907601</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008254989210641946</v>
+        <v>0.007926385521018714</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03591207997705499</v>
+        <v>0.033600283878175</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -4379,19 +4379,19 @@
         <v>20049</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11596</v>
+        <v>12131</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>31584</v>
+        <v>33104</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02352716272652406</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01360793659070957</v>
+        <v>0.01423522429913297</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03706321004030597</v>
+        <v>0.03884738894087816</v>
       </c>
     </row>
     <row r="15">
@@ -4408,19 +4408,19 @@
         <v>4039</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1090</v>
+        <v>1054</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9825</v>
+        <v>9412</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01128995731540943</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003048133034978658</v>
+        <v>0.002945603113378182</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02746318729652812</v>
+        <v>0.02631028826712743</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -4429,19 +4429,19 @@
         <v>5006</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1921</v>
+        <v>1126</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13306</v>
+        <v>12833</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01012483958116667</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.003886003346336808</v>
+        <v>0.002276611482832578</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02691269011941005</v>
+        <v>0.02595544162134171</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>8</v>
@@ -4450,19 +4450,19 @@
         <v>9045</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4039</v>
+        <v>4019</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>18105</v>
+        <v>17141</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01061396955366973</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.004739119288349445</v>
+        <v>0.004715842453428883</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02124605738147405</v>
+        <v>0.02011456124355916</v>
       </c>
     </row>
     <row r="16">
@@ -4479,19 +4479,19 @@
         <v>45432</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32992</v>
+        <v>33797</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60347</v>
+        <v>60171</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1269932500838956</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0922199652939879</v>
+        <v>0.09447184662781864</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1686858936054625</v>
+        <v>0.1681945062011566</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -4500,19 +4500,19 @@
         <v>49749</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38336</v>
+        <v>37803</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65908</v>
+        <v>64737</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1006219359267757</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07753832109179255</v>
+        <v>0.07645925518152215</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1333049621480561</v>
+        <v>0.1309358201697231</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -4521,19 +4521,19 @@
         <v>95181</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76972</v>
+        <v>77956</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>114709</v>
+        <v>117306</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1116929202483087</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09032477448316373</v>
+        <v>0.09147973490487424</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1346088290571061</v>
+        <v>0.137656613315937</v>
       </c>
     </row>
     <row r="17">
@@ -4550,19 +4550,19 @@
         <v>3159</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1009</v>
+        <v>1031</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8396</v>
+        <v>8825</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.00883024949716479</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002819790691766836</v>
+        <v>0.00288096714868111</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02346972962017284</v>
+        <v>0.02466779473651052</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -4584,19 +4584,19 @@
         <v>3159</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8710</v>
+        <v>8732</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003707041414617653</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001193265766677239</v>
+        <v>0.001196677588851923</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01022102780217683</v>
+        <v>0.01024722506110732</v>
       </c>
     </row>
     <row r="18">
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4455</v>
+        <v>5464</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.002457093918491434</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01245274618251165</v>
+        <v>0.01527355969211915</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>4387</v>
+        <v>4987</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.001031516597393707</v>
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.005148604199019683</v>
+        <v>0.005852156967709148</v>
       </c>
     </row>
     <row r="19">
@@ -4689,19 +4689,19 @@
         <v>8852</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3961</v>
+        <v>4025</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15962</v>
+        <v>16155</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01790392940303315</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008012370775149448</v>
+        <v>0.008140461758661647</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.032284401356375</v>
+        <v>0.03267517525884612</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -4710,19 +4710,19 @@
         <v>8852</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4660</v>
+        <v>4683</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16856</v>
+        <v>16463</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01038765165768238</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00546854165267229</v>
+        <v>0.005495731417104081</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0197801117991834</v>
+        <v>0.01931862545561413</v>
       </c>
     </row>
     <row r="20">
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5828</v>
+        <v>5873</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003903706105682969</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0117876271655095</v>
+        <v>0.01187922175579318</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6755</v>
+        <v>6061</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002264884891298374</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007927161862836074</v>
+        <v>0.007112471089234128</v>
       </c>
     </row>
     <row r="21">
@@ -4802,19 +4802,19 @@
         <v>95819</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>78596</v>
+        <v>79626</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>111746</v>
+        <v>113175</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2678389508824789</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2196970990396411</v>
+        <v>0.2225738760034754</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3123575225602137</v>
+        <v>0.3163541513145327</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>121</v>
@@ -4823,19 +4823,19 @@
         <v>128132</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>109304</v>
+        <v>109049</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>148614</v>
+        <v>150205</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2591576895932388</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2210776227339686</v>
+        <v>0.2205604761427362</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3005846615401684</v>
+        <v>0.3038025099994891</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>213</v>
@@ -4844,19 +4844,19 @@
         <v>223951</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>198439</v>
+        <v>199114</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>252676</v>
+        <v>248955</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2628021840257759</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2328649008207521</v>
+        <v>0.233657130917053</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2965103715213426</v>
+        <v>0.2921437787132021</v>
       </c>
     </row>
     <row r="22">
@@ -4873,19 +4873,19 @@
         <v>197392</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>176697</v>
+        <v>177159</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>216647</v>
+        <v>216590</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5517604037582459</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4939136967849052</v>
+        <v>0.4952042355550916</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.605583998894007</v>
+        <v>0.6054234034099562</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>271</v>
@@ -4894,19 +4894,19 @@
         <v>291728</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>269117</v>
+        <v>268288</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>313205</v>
+        <v>313428</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5900449785410267</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5443136260734124</v>
+        <v>0.5426351550305545</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6334845231150312</v>
+        <v>0.6339353793225462</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>453</v>
@@ -4915,19 +4915,19 @@
         <v>489119</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>458074</v>
+        <v>461246</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>517939</v>
+        <v>520028</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5739726688847295</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5375413364870916</v>
+        <v>0.5412636237150995</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6077913378943334</v>
+        <v>0.6102438034902059</v>
       </c>
     </row>
     <row r="23">
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8582</v>
+        <v>8541</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01577618801877547</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07823508720257079</v>
+        <v>0.0778551307359297</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9102</v>
+        <v>10132</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.009322501992276161</v>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04902714108195031</v>
+        <v>0.05457786286904196</v>
       </c>
     </row>
     <row r="25">
@@ -5129,19 +5129,19 @@
         <v>8042</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3977</v>
+        <v>3155</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16964</v>
+        <v>15554</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1058969862806798</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0523737973465039</v>
+        <v>0.04154182952572141</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2233754402299127</v>
+        <v>0.2048087901781894</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -5150,19 +5150,19 @@
         <v>11324</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5500</v>
+        <v>5333</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20310</v>
+        <v>19966</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1032252278952718</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05013322324585762</v>
+        <v>0.04861167499039234</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1851390737668319</v>
+        <v>0.1820023484725683</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -5171,19 +5171,19 @@
         <v>19366</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11417</v>
+        <v>10684</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31538</v>
+        <v>29524</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1043181845548634</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06149977181447148</v>
+        <v>0.05754987135925891</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1698862801850139</v>
+        <v>0.1590347264811814</v>
       </c>
     </row>
     <row r="27">
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5999</v>
+        <v>7070</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01767033506344144</v>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05468617059307519</v>
+        <v>0.0644518709512721</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6268</v>
+        <v>6543</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01044179580245054</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0337612786327672</v>
+        <v>0.03524528041602053</v>
       </c>
     </row>
     <row r="29">
@@ -5323,19 +5323,19 @@
         <v>5581</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1906</v>
+        <v>1937</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13004</v>
+        <v>13528</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05087239347635375</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01737406408830471</v>
+        <v>0.01765530300430911</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1185431844547586</v>
+        <v>0.1233158757339021</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -5344,19 +5344,19 @@
         <v>5581</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1938</v>
+        <v>1914</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13180</v>
+        <v>13342</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03006163396193956</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01044024643014442</v>
+        <v>0.01031217899449148</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.070998138823001</v>
+        <v>0.07186864425902589</v>
       </c>
     </row>
     <row r="30">
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4437</v>
+        <v>5536</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.009004909981695631</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.040445758905451</v>
+        <v>0.05046792302508389</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4149</v>
+        <v>4771</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.005321202507520635</v>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02234945909245808</v>
+        <v>0.02570114727396491</v>
       </c>
     </row>
     <row r="31">
@@ -5436,19 +5436,19 @@
         <v>27916</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>18747</v>
+        <v>18952</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>37030</v>
+        <v>37423</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3675869585144065</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2468597912871593</v>
+        <v>0.2495618515848458</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.487596724115265</v>
+        <v>0.4927784008962843</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>22</v>
@@ -5457,19 +5457,19 @@
         <v>24525</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>16204</v>
+        <v>16215</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>35531</v>
+        <v>34845</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2235604249783822</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1477091182162258</v>
+        <v>0.1478104356001047</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3238891121554516</v>
+        <v>0.3176351774337948</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>44</v>
@@ -5478,19 +5478,19 @@
         <v>52440</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>39255</v>
+        <v>40208</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>66380</v>
+        <v>67478</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2824784618210187</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2114551611826872</v>
+        <v>0.2165843095452777</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3575653638783989</v>
+        <v>0.3634825198384313</v>
       </c>
     </row>
     <row r="32">
@@ -5507,19 +5507,19 @@
         <v>39985</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>31142</v>
+        <v>30511</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>49584</v>
+        <v>49480</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5265160552049137</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.41007263219756</v>
+        <v>0.4017645867241729</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6529054558339636</v>
+        <v>0.6515436676451685</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>54</v>
@@ -5528,19 +5528,19 @@
         <v>63615</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>51206</v>
+        <v>52530</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>74030</v>
+        <v>74542</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5798905205860798</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4667770961741569</v>
+        <v>0.4788486747996866</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6748340102361431</v>
+        <v>0.6795060211014128</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>91</v>
@@ -5549,19 +5549,19 @@
         <v>103600</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>87959</v>
+        <v>89229</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>118818</v>
+        <v>117017</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.558056219359931</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4738059905992545</v>
+        <v>0.4806439828410428</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.640033396921684</v>
+        <v>0.630331515987911</v>
       </c>
     </row>
     <row r="33">
@@ -5653,19 +5653,19 @@
         <v>21683</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>12971</v>
+        <v>12629</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>34536</v>
+        <v>33038</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02786614294408688</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01667079743213255</v>
+        <v>0.01623095214826992</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04438509317902025</v>
+        <v>0.04245982919908913</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>17</v>
@@ -5674,19 +5674,19 @@
         <v>18914</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>11027</v>
+        <v>11553</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>29303</v>
+        <v>29597</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01639623580869969</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.009558650212489144</v>
+        <v>0.01001541814565987</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02540214637930211</v>
+        <v>0.02565695833196503</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>36</v>
@@ -5695,19 +5695,19 @@
         <v>40597</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>28936</v>
+        <v>29504</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>56144</v>
+        <v>56202</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02101645287907939</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01497977807846436</v>
+        <v>0.01527375016399263</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02906518024826915</v>
+        <v>0.02909534883178293</v>
       </c>
     </row>
     <row r="35">
@@ -5724,19 +5724,19 @@
         <v>4039</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10156</v>
+        <v>9360</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.005190836333400835</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.001361482531218042</v>
+        <v>0.001355429714417408</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01305275943884199</v>
+        <v>0.0120293619804714</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -5745,19 +5745,19 @@
         <v>10375</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5223</v>
+        <v>5193</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>19598</v>
+        <v>19711</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.008993777294230749</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.004527685765640541</v>
+        <v>0.004501681606277406</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01698904659528851</v>
+        <v>0.0170870851223119</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -5766,19 +5766,19 @@
         <v>14414</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7794</v>
+        <v>8140</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>24697</v>
+        <v>23939</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.007461906762283375</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.004034947294536615</v>
+        <v>0.004214051842872894</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01278542205273565</v>
+        <v>0.01239312759069721</v>
       </c>
     </row>
     <row r="36">
@@ -5795,19 +5795,19 @@
         <v>117287</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>96444</v>
+        <v>96645</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>142072</v>
+        <v>138843</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1507357369903962</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1239491362162316</v>
+        <v>0.1242072309158396</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1825889437922263</v>
+        <v>0.1784389238407627</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>152</v>
@@ -5816,19 +5816,19 @@
         <v>163468</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>140793</v>
+        <v>140547</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>189722</v>
+        <v>188266</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1417065522662583</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1220505007211868</v>
+        <v>0.1218375238448887</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1644660348363038</v>
+        <v>0.1632036681605754</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>262</v>
@@ -5837,19 +5837,19 @@
         <v>280754</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>249315</v>
+        <v>250475</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>312992</v>
+        <v>315265</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.145343616882533</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1290676877268386</v>
+        <v>0.12966813716172</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1620325619336026</v>
+        <v>0.1632092001917032</v>
       </c>
     </row>
     <row r="37">
@@ -5866,19 +5866,19 @@
         <v>5169</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12285</v>
+        <v>15736</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.006643649706797516</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.001412901625709027</v>
+        <v>0.002569217435181858</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0157879070540294</v>
+        <v>0.02022329568297014</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -5887,19 +5887,19 @@
         <v>2988</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>955</v>
+        <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8142</v>
+        <v>7960</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0025905401016727</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0008279221439866562</v>
+        <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.007058414020440324</v>
+        <v>0.00690048713611365</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>7</v>
@@ -5908,19 +5908,19 @@
         <v>8158</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3200</v>
+        <v>3123</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>17916</v>
+        <v>17425</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.004223181583829344</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.001656860117817053</v>
+        <v>0.00161677699027392</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.009275091095881569</v>
+        <v>0.009020703925009746</v>
       </c>
     </row>
     <row r="38">
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4984</v>
+        <v>4869</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.001129709531255303</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.006404986370281095</v>
+        <v>0.006258078492668501</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2</v>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>6979</v>
+        <v>6577</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.001680405893220349</v>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.006049528043573392</v>
+        <v>0.005701566924449081</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3</v>
@@ -5979,19 +5979,19 @@
         <v>2817</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>7725</v>
+        <v>7425</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.001458578750060919</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0004538593630096779</v>
+        <v>0.0004502716762631225</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.003998907548931695</v>
+        <v>0.003843656044931275</v>
       </c>
     </row>
     <row r="39">
@@ -6021,19 +6021,19 @@
         <v>14433</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>8161</v>
+        <v>8469</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>23449</v>
+        <v>23256</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01251144536545447</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.007074829711744178</v>
+        <v>0.007341996855206435</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.0203273139561679</v>
+        <v>0.02016020811464363</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>14</v>
@@ -6042,19 +6042,19 @@
         <v>14433</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>8614</v>
+        <v>7771</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>23199</v>
+        <v>23376</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.007471684121507451</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.004459291906722701</v>
+        <v>0.004022805619634306</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01200978395883975</v>
+        <v>0.0121015978681924</v>
       </c>
     </row>
     <row r="40">
@@ -6084,19 +6084,19 @@
         <v>2918</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7804</v>
+        <v>7813</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002529469186084249</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0008320623945809965</v>
+        <v>0.0008300179472521663</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.006765085807783288</v>
+        <v>0.006772594221187611</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -6105,19 +6105,19 @@
         <v>2918</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7804</v>
+        <v>7774</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001510568459635483</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0004959851270261291</v>
+        <v>0.0004974407355499418</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.004039986620418781</v>
+        <v>0.004024327635167209</v>
       </c>
     </row>
     <row r="41">
@@ -6134,19 +6134,19 @@
         <v>238709</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>211096</v>
+        <v>211615</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>266523</v>
+        <v>265876</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3067861144154306</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2712986756046268</v>
+        <v>0.2719650048329605</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3425324707675901</v>
+        <v>0.3417010020393816</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>285</v>
@@ -6155,19 +6155,19 @@
         <v>303577</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>273650</v>
+        <v>276073</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>333430</v>
+        <v>338281</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2631642402996418</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2372216821100884</v>
+        <v>0.239321574544178</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.289042949193223</v>
+        <v>0.2932489403081234</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>502</v>
@@ -6176,19 +6176,19 @@
         <v>542286</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>502731</v>
+        <v>501576</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>582615</v>
+        <v>584745</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2807356578405841</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2602583943024132</v>
+        <v>0.2596606201192499</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3016137747764187</v>
+        <v>0.3027164648261911</v>
       </c>
     </row>
     <row r="42">
@@ -6205,19 +6205,19 @@
         <v>390330</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>358774</v>
+        <v>358225</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>418370</v>
+        <v>418750</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5016478100786327</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4610923921309423</v>
+        <v>0.4603865628800052</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5376849046572526</v>
+        <v>0.5381724110591755</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>589</v>
@@ -6226,19 +6226,19 @@
         <v>634953</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>602790</v>
+        <v>600405</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>668977</v>
+        <v>668037</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5504273337847376</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5225459045297188</v>
+        <v>0.5204783284895204</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5799220541169686</v>
+        <v>0.5791072683232582</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>949</v>
@@ -6247,19 +6247,19 @@
         <v>1025283</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>979959</v>
+        <v>979457</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1073130</v>
+        <v>1072027</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5307783527204869</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5073144198547074</v>
+        <v>0.507054731725605</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5555478551324565</v>
+        <v>0.5549769985029662</v>
       </c>
     </row>
     <row r="43">
@@ -6590,19 +6590,19 @@
         <v>6652</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2790</v>
+        <v>2915</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13555</v>
+        <v>13323</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02579636112625451</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01081979090588715</v>
+        <v>0.01130353720772623</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05256674994416277</v>
+        <v>0.05166744355268236</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -6611,19 +6611,19 @@
         <v>10730</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5449</v>
+        <v>6020</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18130</v>
+        <v>19498</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02552574883337093</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01296226269305885</v>
+        <v>0.01432143903082015</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.043130139929308</v>
+        <v>0.04638467019837209</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -6632,19 +6632,19 @@
         <v>17382</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10989</v>
+        <v>9659</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27633</v>
+        <v>26590</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02562863773648475</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01620166390055243</v>
+        <v>0.01424149439986194</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04074216266464067</v>
+        <v>0.03920531782420254</v>
       </c>
     </row>
     <row r="5">
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8221</v>
+        <v>8406</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006549941868085845</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03187896102140596</v>
+        <v>0.03259809509759042</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9571</v>
+        <v>9292</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002490338953509813</v>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01411124651634311</v>
+        <v>0.01370071124635741</v>
       </c>
     </row>
     <row r="6">
@@ -6724,19 +6724,19 @@
         <v>48630</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38253</v>
+        <v>38023</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63502</v>
+        <v>61664</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.188584926695626</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1483409340221795</v>
+        <v>0.14745029669768</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2462546621655208</v>
+        <v>0.2391277839289831</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>66</v>
@@ -6745,19 +6745,19 @@
         <v>72951</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>58888</v>
+        <v>57700</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>90613</v>
+        <v>88861</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1735418346241583</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1400870006942674</v>
+        <v>0.1372624685473829</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2155584539532492</v>
+        <v>0.2113904342920357</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>118</v>
@@ -6766,19 +6766,19 @@
         <v>121581</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>101300</v>
+        <v>101846</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>142285</v>
+        <v>142550</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1792613354871116</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1493576181563451</v>
+        <v>0.1501636878089292</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2097871659957651</v>
+        <v>0.210177720892666</v>
       </c>
     </row>
     <row r="7">
@@ -6845,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5878</v>
+        <v>5396</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004156767588414286</v>
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02279629097008881</v>
+        <v>0.02092403570704124</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6241</v>
+        <v>6098</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.001580435438145398</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.009202103443464225</v>
+        <v>0.008991453940497706</v>
       </c>
     </row>
     <row r="9">
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6569</v>
+        <v>5734</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004437656928737542</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01562644163177783</v>
+        <v>0.01363981871291964</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6629</v>
+        <v>6641</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002750425173934588</v>
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.009773936962361562</v>
+        <v>0.009791482119504513</v>
       </c>
     </row>
     <row r="10">
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6909</v>
+        <v>6933</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004702818696278853</v>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01643649861972759</v>
+        <v>0.01649317631069185</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6911</v>
+        <v>6954</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002914770370582787</v>
@@ -7014,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01018974517400361</v>
+        <v>0.01025254393472698</v>
       </c>
     </row>
     <row r="11">
@@ -7031,19 +7031,19 @@
         <v>67049</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>53757</v>
+        <v>53809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>81335</v>
+        <v>80789</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2600096703637513</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2084642860692054</v>
+        <v>0.2086652489614371</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.315411143772358</v>
+        <v>0.3132922803777844</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>86</v>
@@ -7052,19 +7052,19 @@
         <v>97054</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>79796</v>
+        <v>79344</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>117107</v>
+        <v>115036</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2308809771972453</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1898249051337674</v>
+        <v>0.1887504856667084</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2785847907309953</v>
+        <v>0.27365636492114</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>153</v>
@@ -7073,19 +7073,19 @@
         <v>164103</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>142566</v>
+        <v>143715</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>184886</v>
+        <v>189744</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2419559333904954</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2102018146476749</v>
+        <v>0.2118956165969317</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2725985350830657</v>
+        <v>0.2797618970132483</v>
       </c>
     </row>
     <row r="12">
@@ -7102,19 +7102,19 @@
         <v>132778</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>116224</v>
+        <v>117099</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>149578</v>
+        <v>148514</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5149023323578681</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4507089826054915</v>
+        <v>0.4541000565595527</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5800522614114757</v>
+        <v>0.5759276698346503</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>209</v>
@@ -7123,19 +7123,19 @@
         <v>235787</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>213801</v>
+        <v>214460</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>255753</v>
+        <v>257139</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.560910963720209</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5086075405246447</v>
+        <v>0.5101757311761626</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6084075582442982</v>
+        <v>0.6117031518686925</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>343</v>
@@ -7144,19 +7144,19 @@
         <v>368565</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>345526</v>
+        <v>343086</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>394184</v>
+        <v>394686</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5434181234497357</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5094492095382146</v>
+        <v>0.5058517928598947</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5811903663057361</v>
+        <v>0.5819313957274482</v>
       </c>
     </row>
     <row r="13">
@@ -7248,19 +7248,19 @@
         <v>18444</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11521</v>
+        <v>11139</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28222</v>
+        <v>29122</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03958149724815797</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02472362164645439</v>
+        <v>0.02390481165886708</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06056677359886924</v>
+        <v>0.06249652045588934</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -7269,19 +7269,19 @@
         <v>25662</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17299</v>
+        <v>16548</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36337</v>
+        <v>36812</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04318273588040332</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02911025168810838</v>
+        <v>0.02784571357501011</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06114539730302247</v>
+        <v>0.06194534592905358</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>42</v>
@@ -7290,19 +7290,19 @@
         <v>44106</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31855</v>
+        <v>31601</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>58357</v>
+        <v>59691</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0415999986695047</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03004472612069738</v>
+        <v>0.0298050687093286</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05504170445356203</v>
+        <v>0.0562998101294504</v>
       </c>
     </row>
     <row r="15">
@@ -7319,19 +7319,19 @@
         <v>10202</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5256</v>
+        <v>5106</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16823</v>
+        <v>18760</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02189323026760385</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01128051687486282</v>
+        <v>0.01095751298749022</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03610191240473072</v>
+        <v>0.0402587818832857</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>6</v>
@@ -7340,19 +7340,19 @@
         <v>6730</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3014</v>
+        <v>2735</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14180</v>
+        <v>13704</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0113242221577841</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.005071406746881936</v>
+        <v>0.004602732113785939</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02386097029079856</v>
+        <v>0.02306083683839445</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>16</v>
@@ -7361,19 +7361,19 @@
         <v>16931</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>9479</v>
+        <v>10013</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>27296</v>
+        <v>26138</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01596928018529705</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.008940047781916939</v>
+        <v>0.009444555487841767</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02574469612652354</v>
+        <v>0.02465308610601941</v>
       </c>
     </row>
     <row r="16">
@@ -7390,19 +7390,19 @@
         <v>58341</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45017</v>
+        <v>45372</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73578</v>
+        <v>73006</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1252024552660844</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09660914940802331</v>
+        <v>0.09737055310756963</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.157902451330955</v>
+        <v>0.1566750905288731</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>80</v>
@@ -7411,19 +7411,19 @@
         <v>87658</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71326</v>
+        <v>70616</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>106942</v>
+        <v>107706</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1475062864961598</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.120023104682584</v>
+        <v>0.1188292666967854</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1799556211565852</v>
+        <v>0.1812410857768323</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>136</v>
@@ -7432,19 +7432,19 @@
         <v>145999</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>126615</v>
+        <v>124281</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>173502</v>
+        <v>169003</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1377037970645075</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1194211096773554</v>
+        <v>0.1172193770327854</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1636439627268496</v>
+        <v>0.1594006930835781</v>
       </c>
     </row>
     <row r="17">
@@ -7508,19 +7508,19 @@
         <v>5350</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2003</v>
+        <v>1982</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11233</v>
+        <v>12343</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01148050266141368</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.004297624101220214</v>
+        <v>0.004253689160303685</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02410640771545387</v>
+        <v>0.02648859307805821</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4922</v>
+        <v>4466</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001643881495874469</v>
@@ -7541,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.00828289867626728</v>
+        <v>0.007514378316032935</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -7550,19 +7550,19 @@
         <v>6327</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2914</v>
+        <v>2930</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13620</v>
+        <v>13065</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.005967056919132891</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.002748091434579253</v>
+        <v>0.002763763004114893</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01284619094119361</v>
+        <v>0.01232300225518038</v>
       </c>
     </row>
     <row r="19">
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5491</v>
+        <v>5093</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002181420383382603</v>
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01178462468326625</v>
+        <v>0.01093078027960012</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -7600,19 +7600,19 @@
         <v>13142</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7489</v>
+        <v>7382</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21528</v>
+        <v>21712</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0221139614657192</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01260154338480772</v>
+        <v>0.01242240707035504</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03622688946876326</v>
+        <v>0.03653494398350942</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -7621,19 +7621,19 @@
         <v>14158</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8496</v>
+        <v>8295</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23308</v>
+        <v>22795</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0133536493341375</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00801334437905395</v>
+        <v>0.007823428240518843</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02198344353007503</v>
+        <v>0.02149964032163907</v>
       </c>
     </row>
     <row r="20">
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8553</v>
+        <v>7936</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00490756684374946</v>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01835599985874743</v>
+        <v>0.01703036191060698</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6679</v>
+        <v>7026</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003340811706697736</v>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01123975183727143</v>
+        <v>0.01182273044115863</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -7692,19 +7692,19 @@
         <v>4272</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11889</v>
+        <v>10716</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004029397470933031</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001163309241819145</v>
+        <v>0.001154846801747978</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01121396887849047</v>
+        <v>0.01010734185330931</v>
       </c>
     </row>
     <row r="21">
@@ -7721,19 +7721,19 @@
         <v>113908</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>97591</v>
+        <v>95887</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>133519</v>
+        <v>136680</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2444525981437778</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2094350564940312</v>
+        <v>0.205777216504917</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2865375681525502</v>
+        <v>0.2933222136991642</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>133</v>
@@ -7742,19 +7742,19 @@
         <v>140659</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>121095</v>
+        <v>119936</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>160618</v>
+        <v>162510</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2366928473977444</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2037726055751991</v>
+        <v>0.2018225183155776</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2702792090607922</v>
+        <v>0.273462171933459</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>240</v>
@@ -7763,19 +7763,19 @@
         <v>254567</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>225302</v>
+        <v>224916</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>285423</v>
+        <v>282142</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.240103242405472</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2125007523824846</v>
+        <v>0.2121369417240116</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2692062946540784</v>
+        <v>0.2661114904313023</v>
       </c>
     </row>
     <row r="22">
@@ -7792,19 +7792,19 @@
         <v>256425</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>233829</v>
+        <v>234685</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>277337</v>
+        <v>276129</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5503007291858303</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5018072522629768</v>
+        <v>0.5036449616405373</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5951792949353879</v>
+        <v>0.592585892393943</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>301</v>
@@ -7813,19 +7813,19 @@
         <v>317455</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>292773</v>
+        <v>293330</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>342123</v>
+        <v>345286</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5341952533996169</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4926623857446367</v>
+        <v>0.4935991562248345</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5757062650249115</v>
+        <v>0.5810288347976101</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>537</v>
@@ -7834,19 +7834,19 @@
         <v>573880</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>541437</v>
+        <v>544998</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>608471</v>
+        <v>605072</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5412735779510154</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5106741065894613</v>
+        <v>0.5140328467734393</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5738994371916708</v>
+        <v>0.5706936617279341</v>
       </c>
     </row>
     <row r="23">
@@ -7938,19 +7938,19 @@
         <v>5112</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1802</v>
+        <v>1965</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10465</v>
+        <v>12161</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0427376825170948</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01506813519247208</v>
+        <v>0.01642827168962836</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08748538090485575</v>
+        <v>0.101661222393541</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -7959,19 +7959,19 @@
         <v>4628</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1079</v>
+        <v>1015</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11020</v>
+        <v>10744</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03338812244040886</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.007782507640036135</v>
+        <v>0.007322806249128423</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07949279127711413</v>
+        <v>0.07750657122411224</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -7980,19 +7980,19 @@
         <v>9741</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4638</v>
+        <v>4470</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18299</v>
+        <v>19072</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03771890321114485</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01795975801448067</v>
+        <v>0.01730939773728404</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07085804606783727</v>
+        <v>0.07385241874379038</v>
       </c>
     </row>
     <row r="25">
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5218</v>
+        <v>4241</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008517301103686842</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04361828706705816</v>
+        <v>0.03545341072411827</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -8030,19 +8030,19 @@
         <v>3104</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8339</v>
+        <v>8388</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02238946158051382</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006969380049279153</v>
+        <v>0.006993139052759406</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06015909989610658</v>
+        <v>0.06050874295368643</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -8051,19 +8051,19 @@
         <v>4123</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1011</v>
+        <v>1070</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9303</v>
+        <v>9590</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01596378108337313</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003914479903022407</v>
+        <v>0.004144299072189349</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03602576836887027</v>
+        <v>0.03713626416800155</v>
       </c>
     </row>
     <row r="26">
@@ -8080,19 +8080,19 @@
         <v>13384</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6469</v>
+        <v>6953</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22008</v>
+        <v>22254</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1118841116572135</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05408313995917823</v>
+        <v>0.05812711089035349</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.183982542933371</v>
+        <v>0.1860364018475998</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -8101,19 +8101,19 @@
         <v>10389</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4295</v>
+        <v>4191</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19478</v>
+        <v>17948</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07494438231287789</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03098401664476531</v>
+        <v>0.0302307698882407</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1405094429389447</v>
+        <v>0.1294757152256679</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>20</v>
@@ -8122,19 +8122,19 @@
         <v>23772</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15370</v>
+        <v>15717</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36104</v>
+        <v>36035</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09205511995277618</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05951637592703417</v>
+        <v>0.06086183977257221</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1398069543735048</v>
+        <v>0.1395391196230455</v>
       </c>
     </row>
     <row r="27">
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9891</v>
+        <v>9683</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01599903435796705</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08268544124344286</v>
+        <v>0.08094785727393609</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5983</v>
+        <v>5376</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.00710374611077829</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04315825263551368</v>
+        <v>0.03877809201140404</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11132</v>
+        <v>13269</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01122410503409718</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04310576710862538</v>
+        <v>0.0513836637085226</v>
       </c>
     </row>
     <row r="29">
@@ -8282,19 +8282,19 @@
         <v>5295</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12452</v>
+        <v>11956</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03819657398928985</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01337007644707265</v>
+        <v>0.01332489932147551</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08982407200698511</v>
+        <v>0.08624895319188493</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -8303,19 +8303,19 @@
         <v>5295</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1842</v>
+        <v>1949</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12339</v>
+        <v>12091</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02050365723341975</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007133747007278228</v>
+        <v>0.007547665486491075</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04778044383691641</v>
+        <v>0.04682182179050377</v>
       </c>
     </row>
     <row r="30">
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5508</v>
+        <v>5153</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.008497633255978659</v>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04604784842598908</v>
+        <v>0.04308217687355714</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -8356,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6057</v>
+        <v>6562</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01391326294214147</v>
@@ -8365,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04369242407005009</v>
+        <v>0.04733391873053886</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -8374,19 +8374,19 @@
         <v>2945</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7876</v>
+        <v>7978</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0114047058855645</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0</v>
+        <v>0.00366747360127367</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03049939792792996</v>
+        <v>0.03089447080107012</v>
       </c>
     </row>
     <row r="31">
@@ -8403,19 +8403,19 @@
         <v>31030</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22149</v>
+        <v>21590</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42040</v>
+        <v>42652</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2594074052789737</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1851606931415502</v>
+        <v>0.1804878855659644</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3514486540968405</v>
+        <v>0.3565617034424698</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>33</v>
@@ -8424,7 +8424,7 @@
         <v>35243</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>26147</v>
+        <v>25753</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>47404</v>
@@ -8433,10 +8433,10 @@
         <v>0.2542355284256273</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1886162321202881</v>
+        <v>0.1857791081837443</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3419603405885939</v>
+        <v>0.3419640815335954</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>62</v>
@@ -8445,19 +8445,19 @@
         <v>66273</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>52836</v>
+        <v>51576</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>82320</v>
+        <v>82011</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2566311774873344</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.204597382372949</v>
+        <v>0.199717824487554</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3187721737218357</v>
+        <v>0.3175757855240355</v>
       </c>
     </row>
     <row r="32">
@@ -8474,19 +8474,19 @@
         <v>66145</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>53608</v>
+        <v>54483</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>77174</v>
+        <v>77894</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5529568318290854</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4481532573146273</v>
+        <v>0.4554672736336821</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6451612762188401</v>
+        <v>0.6511750945945329</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>73</v>
@@ -8495,19 +8495,19 @@
         <v>77051</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>64200</v>
+        <v>65029</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>88651</v>
+        <v>90645</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5558289221983626</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4631235109033274</v>
+        <v>0.4691076127978374</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6395084819913832</v>
+        <v>0.6538928951305041</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>133</v>
@@ -8516,19 +8516,19 @@
         <v>143195</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>124956</v>
+        <v>124748</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>159701</v>
+        <v>159845</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.55449855011229</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4838717577644079</v>
+        <v>0.4830661989420472</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6184175859916008</v>
+        <v>0.6189719462166864</v>
       </c>
     </row>
     <row r="33">
@@ -8620,19 +8620,19 @@
         <v>30208</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>20415</v>
+        <v>20814</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>42820</v>
+        <v>42251</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03581460792488386</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02420330582639019</v>
+        <v>0.0246771017221407</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0507673444113007</v>
+        <v>0.05009175999262851</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>38</v>
@@ -8641,19 +8641,19 @@
         <v>41021</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>29356</v>
+        <v>28813</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>55667</v>
+        <v>55740</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03556938510504905</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0254548292172904</v>
+        <v>0.02498395964156592</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04826989175499193</v>
+        <v>0.04833241219320555</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>68</v>
@@ -8662,19 +8662,19 @@
         <v>71229</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>55210</v>
+        <v>55138</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>90600</v>
+        <v>88257</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03567297334691746</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02765034259253675</v>
+        <v>0.02761408061157163</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04537428714252179</v>
+        <v>0.04420090680443459</v>
       </c>
     </row>
     <row r="35">
@@ -8691,19 +8691,19 @@
         <v>12910</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6889</v>
+        <v>6319</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>22167</v>
+        <v>22662</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01530539185956832</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.008166968612839158</v>
+        <v>0.00749193310330841</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0262808758135069</v>
+        <v>0.02686728182998252</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -8712,19 +8712,19 @@
         <v>9833</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4287</v>
+        <v>4706</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>17514</v>
+        <v>17416</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.008526566421594963</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003717149756305219</v>
+        <v>0.004080276873468679</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01518657246021712</v>
+        <v>0.01510161228316928</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>21</v>
@@ -8733,19 +8733,19 @@
         <v>22743</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>15094</v>
+        <v>13971</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>35010</v>
+        <v>33979</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01139011154160278</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.007559194547639753</v>
+        <v>0.006996816406690398</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01753373932161321</v>
+        <v>0.01701720859326345</v>
       </c>
     </row>
     <row r="36">
@@ -8762,19 +8762,19 @@
         <v>120355</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>100501</v>
+        <v>101662</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>140388</v>
+        <v>141798</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1426914317316356</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1191526301781084</v>
+        <v>0.1205290413336603</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1664420660612662</v>
+        <v>0.1681140855973893</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>155</v>
@@ -8783,19 +8783,19 @@
         <v>170998</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>147608</v>
+        <v>148758</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>197831</v>
+        <v>198561</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1482742800987395</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.127992615202663</v>
+        <v>0.1289897793777153</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1715419372799137</v>
+        <v>0.1721743987506998</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>274</v>
@@ -8804,19 +8804,19 @@
         <v>291353</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>257574</v>
+        <v>260929</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>324491</v>
+        <v>327958</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1459159455548508</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1289985262296652</v>
+        <v>0.1306792170407908</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1625121895827093</v>
+        <v>0.1642484655184066</v>
       </c>
     </row>
     <row r="37">
@@ -8880,19 +8880,19 @@
         <v>8335</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3963</v>
+        <v>3428</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>17292</v>
+        <v>17432</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.009882250331880508</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.004697912141278699</v>
+        <v>0.004063881299508057</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0205014904039214</v>
+        <v>0.02066737941473218</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2</v>
@@ -8904,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>6599</v>
+        <v>6871</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.001700965076927426</v>
@@ -8913,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.005722240569317084</v>
+        <v>0.005957808237487</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>9</v>
@@ -8922,19 +8922,19 @@
         <v>10297</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>4981</v>
+        <v>5116</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>19678</v>
+        <v>20924</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.005156944240511977</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.002494421460786137</v>
+        <v>0.002562169412245111</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.009855420539340864</v>
+        <v>0.01047908975966611</v>
       </c>
     </row>
     <row r="39">
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5092</v>
+        <v>4472</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001205131393752967</v>
@@ -8963,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.006037603727212164</v>
+        <v>0.005302323859396159</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>21</v>
@@ -8972,19 +8972,19 @@
         <v>20302</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>12386</v>
+        <v>12370</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>29881</v>
+        <v>29244</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01760404789883627</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0107401564123354</v>
+        <v>0.01072601981566253</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02591012350697557</v>
+        <v>0.025357759185755</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>22</v>
@@ -8993,19 +8993,19 @@
         <v>21318</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>13192</v>
+        <v>14292</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>30930</v>
+        <v>32102</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01067673611581059</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.006606635943014876</v>
+        <v>0.00715768603807529</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01549035731369413</v>
+        <v>0.01607741488431997</v>
       </c>
     </row>
     <row r="40">
@@ -9025,16 +9025,16 @@
         <v>1018</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>8995</v>
+        <v>8758</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0039163295265827</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.00120743418450417</v>
+        <v>0.001206658108181852</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01066394181443153</v>
+        <v>0.01038343869602885</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -9043,19 +9043,19 @@
         <v>5891</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1982</v>
+        <v>2002</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>12784</v>
+        <v>12562</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.005108090650334707</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001718641284668374</v>
+        <v>0.001736279690810142</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01108519077327739</v>
+        <v>0.01089248661656051</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>9</v>
@@ -9064,19 +9064,19 @@
         <v>9194</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4304</v>
+        <v>4239</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>16829</v>
+        <v>16292</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.004604660995542568</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002155755890169459</v>
+        <v>0.002122901398184743</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.008428164975054015</v>
+        <v>0.008159612384362013</v>
       </c>
     </row>
     <row r="41">
@@ -9093,19 +9093,19 @@
         <v>211987</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>190862</v>
+        <v>186713</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>238897</v>
+        <v>237610</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.251329712119586</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2262842951500586</v>
+        <v>0.221364393372905</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2832330529911242</v>
+        <v>0.2817071350089932</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>252</v>
@@ -9114,19 +9114,19 @@
         <v>272956</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>241091</v>
+        <v>245537</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>303562</v>
+        <v>303118</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.236683057927711</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2090526349158205</v>
+        <v>0.2129078299702551</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2632220528227766</v>
+        <v>0.262837530743491</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>455</v>
@@ -9135,19 +9135,19 @@
         <v>484943</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>447761</v>
+        <v>442959</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>522212</v>
+        <v>522753</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2428701703588175</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2242485329054835</v>
+        <v>0.2218435342010152</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2615353917382165</v>
+        <v>0.2618060434205601</v>
       </c>
     </row>
     <row r="42">
@@ -9164,19 +9164,19 @@
         <v>455348</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>425577</v>
+        <v>425836</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>483584</v>
+        <v>482777</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5398551451121101</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5045595784397044</v>
+        <v>0.5048658454034838</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5733318570097219</v>
+        <v>0.5723747198296179</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>583</v>
@@ -9185,19 +9185,19 @@
         <v>630292</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>593178</v>
+        <v>594155</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>664082</v>
+        <v>663509</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5465336068208071</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5143512710182726</v>
+        <v>0.515198829418078</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5758334175386364</v>
+        <v>0.5753361688929399</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1013</v>
@@ -9206,19 +9206,19 @@
         <v>1085640</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1037775</v>
+        <v>1041896</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1132754</v>
+        <v>1131931</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5437124578459464</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5197407491053169</v>
+        <v>0.5218043522628919</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5673081855136932</v>
+        <v>0.5668960268463472</v>
       </c>
     </row>
     <row r="43">
@@ -9549,19 +9549,19 @@
         <v>2496</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6850</v>
+        <v>7447</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01696257149336048</v>
+        <v>0.01696257149336047</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004026054608642334</v>
+        <v>0.004018851038805245</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04655721208123296</v>
+        <v>0.05061295545315111</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -9570,19 +9570,19 @@
         <v>11760</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7365</v>
+        <v>7358</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17260</v>
+        <v>16826</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04570300175629774</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02862390656622819</v>
+        <v>0.02859575734417552</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06707834257183712</v>
+        <v>0.06539106689907009</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -9591,19 +9591,19 @@
         <v>14256</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8925</v>
+        <v>9426</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21036</v>
+        <v>20706</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03524727111480026</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02206751385459179</v>
+        <v>0.02330427744538113</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05201147751764886</v>
+        <v>0.05119485532221126</v>
       </c>
     </row>
     <row r="5">
@@ -9620,19 +9620,19 @@
         <v>3927</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10149</v>
+        <v>9693</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02668629601608076</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00743442661295326</v>
+        <v>0.007356193706085251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06897719100324354</v>
+        <v>0.06587412816062752</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2531</v>
+        <v>3124</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002381771750258164</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.009837339041482302</v>
+        <v>0.01213924262514997</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -9662,19 +9662,19 @@
         <v>4539</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1720</v>
+        <v>1429</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10147</v>
+        <v>11317</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01122372563780617</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004252905864201999</v>
+        <v>0.003532811948460459</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02508866820800928</v>
+        <v>0.0279811283091204</v>
       </c>
     </row>
     <row r="6">
@@ -9691,19 +9691,19 @@
         <v>10363</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5940</v>
+        <v>6063</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16337</v>
+        <v>16516</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.07043235511949958</v>
+        <v>0.07043235511949957</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04036895911699912</v>
+        <v>0.04120681139535499</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.111029919427725</v>
+        <v>0.1122485010553747</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>52</v>
@@ -9712,19 +9712,19 @@
         <v>29712</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23073</v>
+        <v>22948</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38670</v>
+        <v>38141</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1154693899904993</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08966925707963984</v>
+        <v>0.08918324878271565</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1502826893023499</v>
+        <v>0.1482253068900796</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>67</v>
@@ -9733,19 +9733,19 @@
         <v>40075</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30390</v>
+        <v>30734</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50192</v>
+        <v>49889</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.09908497607620405</v>
+        <v>0.09908497607620402</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07513743090365002</v>
+        <v>0.07598921597057963</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1240969930000568</v>
+        <v>0.1233497708536821</v>
       </c>
     </row>
     <row r="7">
@@ -9812,16 +9812,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5892</v>
+        <v>6535</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.007446817090471209</v>
+        <v>0.007446817090471207</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04004283533386063</v>
+        <v>0.04441013895708724</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -9833,16 +9833,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2343</v>
+        <v>2156</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.001678774752938634</v>
+        <v>0.001678774752938633</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.009106880565070963</v>
+        <v>0.008380291738586525</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7652</v>
+        <v>6558</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.003777180951393038</v>
@@ -9863,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01891843824358092</v>
+        <v>0.01621558856067021</v>
       </c>
     </row>
     <row r="9">
@@ -9943,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4071</v>
+        <v>6516</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003419884056777686</v>
@@ -9952,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01582072153883656</v>
+        <v>0.02532484110129592</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4557</v>
+        <v>6099</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002175734745313454</v>
@@ -9973,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01126735849561164</v>
+        <v>0.01508044872071583</v>
       </c>
     </row>
     <row r="11">
@@ -9990,19 +9990,19 @@
         <v>58704</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>48275</v>
+        <v>47877</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69295</v>
+        <v>68468</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3989669636552109</v>
+        <v>0.3989669636552108</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3280908511905353</v>
+        <v>0.3253834142784534</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4709436250801214</v>
+        <v>0.4653262918223436</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>169</v>
@@ -10011,19 +10011,19 @@
         <v>100418</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>88616</v>
+        <v>89365</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>113667</v>
+        <v>114836</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3902514023493933</v>
+        <v>0.3902514023493932</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3443878908029936</v>
+        <v>0.3472967692327698</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4417409885371159</v>
+        <v>0.446286256019004</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>246</v>
@@ -10032,19 +10032,19 @@
         <v>159122</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>144088</v>
+        <v>141606</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>176256</v>
+        <v>175801</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3934221120628314</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3562524780612422</v>
+        <v>0.3501156492001721</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4357853469320795</v>
+        <v>0.4346624632424862</v>
       </c>
     </row>
     <row r="12">
@@ -10061,19 +10061,19 @@
         <v>70554</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60262</v>
+        <v>59133</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>82088</v>
+        <v>81636</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4795049966253773</v>
+        <v>0.4795049966253772</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4095583678503524</v>
+        <v>0.4018824056915836</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5578890998567705</v>
+        <v>0.5548169845016409</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>195</v>
@@ -10082,19 +10082,19 @@
         <v>113501</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>101487</v>
+        <v>100625</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>126598</v>
+        <v>125070</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.4410957753438353</v>
+        <v>0.4410957753438352</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3944068870081953</v>
+        <v>0.3910573954292777</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4919971473028414</v>
+        <v>0.4860578249059621</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>282</v>
@@ -10103,19 +10103,19 @@
         <v>184055</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>168164</v>
+        <v>166647</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>200821</v>
+        <v>200257</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.4550689994116517</v>
+        <v>0.4550689994116516</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4157794385649814</v>
+        <v>0.4120285847323117</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4965227724460454</v>
+        <v>0.4951286162086529</v>
       </c>
     </row>
     <row r="13">
@@ -10207,19 +10207,19 @@
         <v>23985</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15642</v>
+        <v>15681</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36217</v>
+        <v>36251</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06053372366758672</v>
+        <v>0.06053372366758671</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03947601110184602</v>
+        <v>0.03957570427814604</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09140253570216381</v>
+        <v>0.09148883377682213</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -10228,19 +10228,19 @@
         <v>25410</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17146</v>
+        <v>17841</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35453</v>
+        <v>35513</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05190724995943391</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03502497423438694</v>
+        <v>0.03644630940952581</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07242352254123853</v>
+        <v>0.07254646467511273</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -10249,19 +10249,19 @@
         <v>49395</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37765</v>
+        <v>36946</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>65110</v>
+        <v>63142</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05576618780044595</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04263549387231752</v>
+        <v>0.04171166425726187</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07350801462375592</v>
+        <v>0.07128622958718014</v>
       </c>
     </row>
     <row r="15">
@@ -10278,19 +10278,19 @@
         <v>8852</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4264</v>
+        <v>4117</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16720</v>
+        <v>16097</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02234142702450868</v>
+        <v>0.02234142702450869</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01076221036352367</v>
+        <v>0.01039091536492709</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04219651953477394</v>
+        <v>0.04062630227561039</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>11</v>
@@ -10299,19 +10299,19 @@
         <v>7318</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3712</v>
+        <v>3743</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13459</v>
+        <v>13006</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01494936227516325</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.007582086667661271</v>
+        <v>0.007647156234540389</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02749356682140245</v>
+        <v>0.02656826351301096</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>20</v>
@@ -10320,19 +10320,19 @@
         <v>16170</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>9940</v>
+        <v>9885</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>24527</v>
+        <v>24773</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01825610374908685</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01122258665384967</v>
+        <v>0.01115991065457244</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02769015027360669</v>
+        <v>0.02796864612901204</v>
       </c>
     </row>
     <row r="16">
@@ -10349,19 +10349,19 @@
         <v>25674</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15785</v>
+        <v>17108</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37807</v>
+        <v>38699</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0647941302079407</v>
+        <v>0.06479413020794073</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03983762639714093</v>
+        <v>0.04317683432388815</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09541697689817126</v>
+        <v>0.09766869296195006</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -10370,19 +10370,19 @@
         <v>19638</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13301</v>
+        <v>13824</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29428</v>
+        <v>29953</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04011639587701513</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02717155568236525</v>
+        <v>0.0282390181879187</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06011605398015239</v>
+        <v>0.06118804348977767</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -10391,19 +10391,19 @@
         <v>45312</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33487</v>
+        <v>33938</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61196</v>
+        <v>60368</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05115565085672369</v>
+        <v>0.0511556508567237</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03780650263559442</v>
+        <v>0.03831473684294472</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06908855903595915</v>
+        <v>0.06815355308652088</v>
       </c>
     </row>
     <row r="17">
@@ -10433,19 +10433,19 @@
         <v>1902</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4542</v>
+        <v>4981</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00388461583660955</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001214409259015383</v>
+        <v>0.001214943090026217</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.009279142132082309</v>
+        <v>0.01017524005113817</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -10454,19 +10454,19 @@
         <v>1902</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5542</v>
+        <v>5609</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.002146884805734225</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.000674684212800908</v>
+        <v>0.0006785195644962754</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.006256880698463687</v>
+        <v>0.006332668010571131</v>
       </c>
     </row>
     <row r="18">
@@ -10483,19 +10483,19 @@
         <v>2924</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8435</v>
+        <v>8013</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.007378774809543459</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002001929181138025</v>
+        <v>0.001988501213084756</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02128856384718205</v>
+        <v>0.0202237449106243</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -10504,19 +10504,19 @@
         <v>3280</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1249</v>
+        <v>1258</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8225</v>
+        <v>7740</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.006699473680301629</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.002552463602329904</v>
+        <v>0.002569913261846331</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01680293529807976</v>
+        <v>0.01581220691436589</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -10525,19 +10525,19 @@
         <v>6203</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2846</v>
+        <v>2837</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>11541</v>
+        <v>12157</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.007003349971096566</v>
+        <v>0.007003349971096565</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003212821646007966</v>
+        <v>0.003203453515087719</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01302978656117878</v>
+        <v>0.0137247352291033</v>
       </c>
     </row>
     <row r="19">
@@ -10567,19 +10567,19 @@
         <v>9378</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4398</v>
+        <v>4443</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17720</v>
+        <v>18256</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01915700349502343</v>
+        <v>0.01915700349502342</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008984440299470965</v>
+        <v>0.009075119214234571</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03619918673466361</v>
+        <v>0.03729369281069514</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -10588,19 +10588,19 @@
         <v>9378</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4258</v>
+        <v>4123</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18974</v>
+        <v>18776</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.01058737374729935</v>
+        <v>0.01058737374729934</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004806928370121276</v>
+        <v>0.004655305146127011</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02142088709772207</v>
+        <v>0.02119719345181548</v>
       </c>
     </row>
     <row r="20">
@@ -10633,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6711</v>
+        <v>4906</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002781068416052904</v>
@@ -10642,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.013709804360223</v>
+        <v>0.01002163669823518</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4839</v>
+        <v>5099</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001536994590266211</v>
@@ -10663,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005463603850767612</v>
+        <v>0.005756411238189867</v>
       </c>
     </row>
     <row r="21">
@@ -10680,19 +10680,19 @@
         <v>149472</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>130166</v>
+        <v>132156</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>170711</v>
+        <v>171439</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3772338220446507</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3285088543021404</v>
+        <v>0.3335315854344489</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4308363777108499</v>
+        <v>0.4326745238901196</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>228</v>
@@ -10701,19 +10701,19 @@
         <v>158907</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>141921</v>
+        <v>140581</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>178781</v>
+        <v>178376</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.3246131587305033</v>
+        <v>0.3246131587305032</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2899155183687548</v>
+        <v>0.287178214478256</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.365213131557697</v>
+        <v>0.3643842056663928</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>383</v>
@@ -10722,19 +10722,19 @@
         <v>308379</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>282806</v>
+        <v>280515</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>337537</v>
+        <v>335188</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3481523099239055</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3192812056496824</v>
+        <v>0.3166943391851044</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3810708311964132</v>
+        <v>0.3784196663799174</v>
       </c>
     </row>
     <row r="22">
@@ -10751,19 +10751,19 @@
         <v>185325</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>162156</v>
+        <v>163210</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>209322</v>
+        <v>204814</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4677181222457697</v>
+        <v>0.4677181222457696</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4092445797743111</v>
+        <v>0.4119040996557803</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5282803380790652</v>
+        <v>0.5169051987915976</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>346</v>
@@ -10772,19 +10772,19 @@
         <v>262333</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>242634</v>
+        <v>240423</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>281123</v>
+        <v>283093</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5358916717298969</v>
+        <v>0.5358916717298968</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4956507189150467</v>
+        <v>0.4911350410360865</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5742766463397326</v>
+        <v>0.5783001532129668</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>513</v>
@@ -10793,19 +10793,19 @@
         <v>447658</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>418196</v>
+        <v>417546</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>476250</v>
+        <v>476431</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5053951445554417</v>
+        <v>0.5053951445554415</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4721331090629379</v>
+        <v>0.4713994633906174</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5376749355357315</v>
+        <v>0.5378798048322555</v>
       </c>
     </row>
     <row r="23">
@@ -10897,19 +10897,19 @@
         <v>3882</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11707</v>
+        <v>12449</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02685539005211252</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003633236059784731</v>
+        <v>0.003724679929754213</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08099406779782552</v>
+        <v>0.08612585419778951</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -10918,19 +10918,19 @@
         <v>5127</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2092</v>
+        <v>2097</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10118</v>
+        <v>10007</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02913804991958983</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0118876930654938</v>
+        <v>0.01191840785142939</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05750693946408123</v>
+        <v>0.05687592261129171</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -10939,19 +10939,19 @@
         <v>9009</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4701</v>
+        <v>4531</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18685</v>
+        <v>18115</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02810858481863067</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01466949614849597</v>
+        <v>0.01413863408038262</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05830002575177881</v>
+        <v>0.05652265566034787</v>
       </c>
     </row>
     <row r="25">
@@ -10968,19 +10968,19 @@
         <v>5617</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1176</v>
+        <v>1147</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14753</v>
+        <v>15484</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03886336228560783</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008135342777860427</v>
+        <v>0.007937094608789788</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1020668162951025</v>
+        <v>0.1071291327082734</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -10989,19 +10989,19 @@
         <v>5907</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2346</v>
+        <v>2659</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11525</v>
+        <v>11689</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03357202950871827</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01333380373836256</v>
+        <v>0.0151138163415106</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06549891449920722</v>
+        <v>0.06643281956708526</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -11010,19 +11010,19 @@
         <v>11524</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5788</v>
+        <v>5586</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22187</v>
+        <v>21066</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03595838698097242</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01805937930734882</v>
+        <v>0.01742802133889786</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06922880479070924</v>
+        <v>0.0657290188318443</v>
       </c>
     </row>
     <row r="26">
@@ -11039,19 +11039,19 @@
         <v>6292</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2689</v>
+        <v>2848</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12380</v>
+        <v>11715</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04353042283611641</v>
+        <v>0.04353042283611642</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01860630814120821</v>
+        <v>0.01970565369803659</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08565134711847196</v>
+        <v>0.08105294688715596</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -11060,19 +11060,19 @@
         <v>10019</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5590</v>
+        <v>5789</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16674</v>
+        <v>16176</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05693899080191105</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03177164857320189</v>
+        <v>0.03290356908640467</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09476453521772395</v>
+        <v>0.09193351346683014</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -11081,19 +11081,19 @@
         <v>16310</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10415</v>
+        <v>10159</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24083</v>
+        <v>23485</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.05089181181949012</v>
+        <v>0.0508918118194901</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03249549890187994</v>
+        <v>0.03169751835825603</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0751424240013043</v>
+        <v>0.07327897080476474</v>
       </c>
     </row>
     <row r="27">
@@ -11113,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4565</v>
+        <v>3823</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.005293146445431975</v>
@@ -11122,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03157981744182273</v>
+        <v>0.02644984189774607</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -11147,16 +11147,16 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4538</v>
+        <v>4834</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.002387175425246497</v>
+        <v>0.002387175425246496</v>
       </c>
       <c r="V27" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01415899209758327</v>
+        <v>0.01508322728905427</v>
       </c>
     </row>
     <row r="28">
@@ -11173,19 +11173,19 @@
         <v>2660</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>674</v>
+        <v>786</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7393</v>
+        <v>7594</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01840054582447252</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00466342904775612</v>
+        <v>0.005437874996625592</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05115036650325093</v>
+        <v>0.05253899498417901</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -11194,19 +11194,19 @@
         <v>2564</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6299</v>
+        <v>5834</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.01457145948179898</v>
+        <v>0.01457145948179899</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003925690670911483</v>
+        <v>0.003878889963148369</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03579858386522332</v>
+        <v>0.03315721772417667</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -11215,19 +11215,19 @@
         <v>5223</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2055</v>
+        <v>2275</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10410</v>
+        <v>10728</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.01629835310029423</v>
+        <v>0.01629835310029422</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006411857027226235</v>
+        <v>0.007099784864651236</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03248244286015045</v>
+        <v>0.03347200644122836</v>
       </c>
     </row>
     <row r="29">
@@ -11257,19 +11257,19 @@
         <v>4477</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1211</v>
+        <v>1119</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11491</v>
+        <v>10404</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02544590480475619</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006884840161953576</v>
+        <v>0.006358073398944378</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06530976476502422</v>
+        <v>0.05912820961832438</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -11278,19 +11278,19 @@
         <v>4477</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10083</v>
+        <v>10240</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.01396996336816547</v>
+        <v>0.01396996336816546</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003378984870337613</v>
+        <v>0.003400181737484151</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03146241239251226</v>
+        <v>0.03194937517684843</v>
       </c>
     </row>
     <row r="30">
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12341</v>
+        <v>10781</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01577548501652745</v>
@@ -11332,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07013756129544052</v>
+        <v>0.0612741252905661</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -11344,16 +11344,16 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10696</v>
+        <v>10108</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.008660841478694009</v>
+        <v>0.008660841478694007</v>
       </c>
       <c r="V30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03337466985036878</v>
+        <v>0.03153912661704282</v>
       </c>
     </row>
     <row r="31">
@@ -11370,19 +11370,19 @@
         <v>59414</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>47558</v>
+        <v>46875</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>71356</v>
+        <v>71802</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4110591349958742</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3290299417961014</v>
+        <v>0.3243025098278395</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4936786674455322</v>
+        <v>0.4967644728418366</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>76</v>
@@ -11391,19 +11391,19 @@
         <v>54082</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>43409</v>
+        <v>43513</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>64633</v>
+        <v>65751</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3073678538587573</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.246708659817037</v>
+        <v>0.247300580694931</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3673304610337526</v>
+        <v>0.373688600136465</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>137</v>
@@ -11412,19 +11412,19 @@
         <v>113496</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>97135</v>
+        <v>96110</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>129962</v>
+        <v>130100</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.3541319630128638</v>
+        <v>0.3541319630128637</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.303082059126912</v>
+        <v>0.2998819824486126</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4055064695664406</v>
+        <v>0.4059393073856153</v>
       </c>
     </row>
     <row r="32">
@@ -11441,19 +11441,19 @@
         <v>65910</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>53078</v>
+        <v>53028</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>78924</v>
+        <v>79076</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4559979975603844</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3672179300665691</v>
+        <v>0.3668733819120552</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5460334737433697</v>
+        <v>0.5470896855699684</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>123</v>
@@ -11462,19 +11462,19 @@
         <v>91001</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>79679</v>
+        <v>78470</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>102040</v>
+        <v>103215</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5171902266079408</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4528472242958135</v>
+        <v>0.4459752556725073</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5799309481371454</v>
+        <v>0.5866094923217553</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>187</v>
@@ -11483,19 +11483,19 @@
         <v>156911</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>140128</v>
+        <v>139040</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>174068</v>
+        <v>175432</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.489592919995643</v>
+        <v>0.4895929199956429</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4372290760721117</v>
+        <v>0.4338341466610225</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5431265160650299</v>
+        <v>0.5473822612695116</v>
       </c>
     </row>
     <row r="33">
@@ -11587,19 +11587,19 @@
         <v>30363</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>20594</v>
+        <v>20609</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>42936</v>
+        <v>43667</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.04413784082925176</v>
+        <v>0.04413784082925177</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02993713232408122</v>
+        <v>0.02995878088350594</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06241427485691671</v>
+        <v>0.0634772984619314</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>62</v>
@@ -11608,19 +11608,19 @@
         <v>42297</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>32231</v>
+        <v>32715</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>54908</v>
+        <v>56944</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.04583575133939736</v>
+        <v>0.04583575133939737</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03492744976797381</v>
+        <v>0.03545192287801394</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05950206474124452</v>
+        <v>0.06170844459076196</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>90</v>
@@ -11629,19 +11629,19 @@
         <v>72660</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>57662</v>
+        <v>58799</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>90715</v>
+        <v>90425</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04511059484485264</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03579922973824484</v>
+        <v>0.03650485125134786</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05632011977391044</v>
+        <v>0.05614026681617199</v>
       </c>
     </row>
     <row r="35">
@@ -11658,19 +11658,19 @@
         <v>18396</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10825</v>
+        <v>11012</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>31108</v>
+        <v>31324</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02674225690178725</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01573621727165358</v>
+        <v>0.01600768076127844</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04522078958461291</v>
+        <v>0.04553537888597685</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>19</v>
@@ -11679,19 +11679,19 @@
         <v>13838</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>8670</v>
+        <v>8616</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>21939</v>
+        <v>22272</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0149958266473886</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.009395232045433789</v>
+        <v>0.0093371512679642</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02377411143815843</v>
+        <v>0.02413493282449863</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>36</v>
@@ -11700,19 +11700,19 @@
         <v>32234</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>22722</v>
+        <v>23936</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>46381</v>
+        <v>45565</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02001258114404545</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01410662496678451</v>
+        <v>0.01486041918604287</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02879531258116184</v>
+        <v>0.02828859086965114</v>
       </c>
     </row>
     <row r="36">
@@ -11729,19 +11729,19 @@
         <v>42329</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>31101</v>
+        <v>30547</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>57495</v>
+        <v>56341</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.0615323081573192</v>
+        <v>0.06153230815731922</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04521053775992964</v>
+        <v>0.04440603767419822</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08357878625306586</v>
+        <v>0.0819019233603647</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>97</v>
@@ -11750,19 +11750,19 @@
         <v>59369</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>48818</v>
+        <v>47602</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>73318</v>
+        <v>71538</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06433569194897389</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05290250359008604</v>
+        <v>0.05158512469268638</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07945207255270056</v>
+        <v>0.07752304126131479</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>143</v>
@@ -11771,19 +11771,19 @@
         <v>101697</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>84715</v>
+        <v>84595</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>120385</v>
+        <v>120338</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06313840154345923</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05259470301040921</v>
+        <v>0.05252036624921777</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07474053924663661</v>
+        <v>0.07471146709498533</v>
       </c>
     </row>
     <row r="37">
@@ -11803,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5034</v>
+        <v>4294</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.001112164179094816</v>
@@ -11812,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.007317272645862727</v>
+        <v>0.006241789012544647</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -11821,19 +11821,19 @@
         <v>1902</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5117</v>
+        <v>5153</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.002060723265846109</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0006500170119621569</v>
+        <v>0.0006476967651893999</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.005544872346657448</v>
+        <v>0.005584640801047363</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4</v>
@@ -11842,19 +11842,19 @@
         <v>2667</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6190</v>
+        <v>7252</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.001655605458925808</v>
+        <v>0.001655605458925807</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.000407719880990328</v>
+        <v>0.0004035294485649044</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.003842914706445759</v>
+        <v>0.004502404912188514</v>
       </c>
     </row>
     <row r="38">
@@ -11871,19 +11871,19 @@
         <v>6679</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2908</v>
+        <v>2417</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>13303</v>
+        <v>12815</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.009709157031666402</v>
+        <v>0.009709157031666403</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.00422776050461536</v>
+        <v>0.003513450365785602</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01933860472503477</v>
+        <v>0.01862842809262236</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>10</v>
@@ -11892,19 +11892,19 @@
         <v>6275</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3284</v>
+        <v>3086</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>12049</v>
+        <v>12080</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.006800466022905798</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.00355920574180765</v>
+        <v>0.003344339503456904</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01305661946360244</v>
+        <v>0.01309109906670821</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>17</v>
@@ -11913,19 +11913,19 @@
         <v>12954</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>7710</v>
+        <v>7758</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>21000</v>
+        <v>20632</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.008042731833160861</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.004786587692944197</v>
+        <v>0.004816694900779905</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0130379678590632</v>
+        <v>0.01280947080662961</v>
       </c>
     </row>
     <row r="39">
@@ -11955,19 +11955,19 @@
         <v>13855</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>6986</v>
+        <v>7347</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>24183</v>
+        <v>22935</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01501433082247822</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.007570157981957044</v>
+        <v>0.007962076042240215</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02620616811388283</v>
+        <v>0.02485419350438767</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>12</v>
@@ -11976,19 +11976,19 @@
         <v>13855</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>7227</v>
+        <v>7092</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>24385</v>
+        <v>24262</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.008601896573379002</v>
+        <v>0.008601896573379</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.004487147238552054</v>
+        <v>0.004403168846103131</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.0151392546926323</v>
+        <v>0.01506273094645954</v>
       </c>
     </row>
     <row r="40">
@@ -12018,19 +12018,19 @@
         <v>5017</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1702</v>
+        <v>1484</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>12593</v>
+        <v>12341</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.00543689046708736</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001844283948880645</v>
+        <v>0.001608305525289518</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01364687113646017</v>
+        <v>0.01337360802706357</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>5</v>
@@ -12039,19 +12039,19 @@
         <v>5017</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1630</v>
+        <v>1583</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>13648</v>
+        <v>12824</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.003114862062893882</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001012070261541015</v>
+        <v>0.0009825179341197605</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.008473278973814681</v>
+        <v>0.007961673581381997</v>
       </c>
     </row>
     <row r="41">
@@ -12068,19 +12068,19 @@
         <v>267591</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>242765</v>
+        <v>242840</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>298128</v>
+        <v>295198</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.3889895751942863</v>
+        <v>0.3889895751942865</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3529005737453141</v>
+        <v>0.3530102060115934</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4333806141220554</v>
+        <v>0.4291219144100559</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>473</v>
@@ -12089,19 +12089,19 @@
         <v>313406</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>288668</v>
+        <v>287615</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>338693</v>
+        <v>337508</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.3396277123025301</v>
+        <v>0.3396277123025302</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3128203005787792</v>
+        <v>0.3116788302939051</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3670302838500878</v>
+        <v>0.365745893003321</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>766</v>
@@ -12110,19 +12110,19 @@
         <v>580997</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>544572</v>
+        <v>547575</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>620666</v>
+        <v>618163</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.360709550977122</v>
+        <v>0.3607095509771219</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3380950563884763</v>
+        <v>0.3399597088099048</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3853381280365646</v>
+        <v>0.3837841420821296</v>
       </c>
     </row>
     <row r="42">
@@ -12139,19 +12139,19 @@
         <v>321789</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>294260</v>
+        <v>295561</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>351273</v>
+        <v>349412</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.4677766977065941</v>
+        <v>0.4677766977065942</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4277583209747264</v>
+        <v>0.4296497263420198</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5106358545714442</v>
+        <v>0.5079316339817557</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>664</v>
@@ -12160,19 +12160,19 @@
         <v>466834</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>439514</v>
+        <v>441123</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>494839</v>
+        <v>492518</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5058926071833926</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4762871451646469</v>
+        <v>0.478030564683506</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5362403666016632</v>
+        <v>0.5337254775715914</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>982</v>
@@ -12181,19 +12181,19 @@
         <v>788624</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>750801</v>
+        <v>749674</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>826562</v>
+        <v>825387</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4896137755621612</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.466131855258862</v>
+        <v>0.4654316624414365</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5131675336223424</v>
+        <v>0.5124379376687079</v>
       </c>
     </row>
     <row r="43">
